--- a/QuizWhizAI.xlsx
+++ b/QuizWhizAI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
   <si>
     <t>Website</t>
   </si>
@@ -86,9 +86,6 @@
     <t>Dashboard</t>
   </si>
   <si>
-    <t>Userss</t>
-  </si>
-  <si>
     <t>Categories</t>
   </si>
   <si>
@@ -149,18 +146,6 @@
     <t>Users can perform login with gmail</t>
   </si>
   <si>
-    <t>Active Userss</t>
-  </si>
-  <si>
-    <t>Users can see the total active Userss</t>
-  </si>
-  <si>
-    <t>Paid Userss</t>
-  </si>
-  <si>
-    <t>Users can see the total active paid Userss</t>
-  </si>
-  <si>
     <t>Active Quizzes</t>
   </si>
   <si>
@@ -173,12 +158,6 @@
     <t>Users can see the total participant &amp; percentage of complete quizzes</t>
   </si>
   <si>
-    <t>Recent Userss</t>
-  </si>
-  <si>
-    <t>Users can see the recent Userss</t>
-  </si>
-  <si>
     <t>Top Quizzes By Participants</t>
   </si>
   <si>
@@ -255,13 +234,223 @@
   </si>
   <si>
     <t>verify that users can login with valid data as admin.</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Active Users</t>
+  </si>
+  <si>
+    <t>Paid Users</t>
+  </si>
+  <si>
+    <t>Recent Users</t>
+  </si>
+  <si>
+    <t>Users can see the total active Users</t>
+  </si>
+  <si>
+    <t>Users can see the total active paid Users</t>
+  </si>
+  <si>
+    <t>Users can see the recent Users</t>
+  </si>
+  <si>
+    <t>Admin Dashboard</t>
+  </si>
+  <si>
+    <t>User Dashboard</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Polls</t>
+  </si>
+  <si>
+    <t>Manage Subscription</t>
+  </si>
+  <si>
+    <t>Quiz Settings</t>
+  </si>
+  <si>
+    <t>User Quizzes</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Add New User</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Edit User</t>
+  </si>
+  <si>
+    <t>Delete User</t>
+  </si>
+  <si>
+    <t>Control Status</t>
+  </si>
+  <si>
+    <t>User can search existing users.</t>
+  </si>
+  <si>
+    <t>User can add new users</t>
+  </si>
+  <si>
+    <t>User can filter the user data</t>
+  </si>
+  <si>
+    <t>User can edit the users</t>
+  </si>
+  <si>
+    <t>User can delete the users</t>
+  </si>
+  <si>
+    <t>User can enable or disable the users</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>User can view the details of the users</t>
+  </si>
+  <si>
+    <t>Add New Categories</t>
+  </si>
+  <si>
+    <t>Edit Categories</t>
+  </si>
+  <si>
+    <t>Delete Categories</t>
+  </si>
+  <si>
+    <t>Search Categories</t>
+  </si>
+  <si>
+    <t>View Categories</t>
+  </si>
+  <si>
+    <t>User can add new categories</t>
+  </si>
+  <si>
+    <t>User can edit the categories</t>
+  </si>
+  <si>
+    <t>User can delete the categories</t>
+  </si>
+  <si>
+    <t>User can search existing categories</t>
+  </si>
+  <si>
+    <t>User can view the details of the categories</t>
+  </si>
+  <si>
+    <t>Control Active Status</t>
+  </si>
+  <si>
+    <t>Control View Status</t>
+  </si>
+  <si>
+    <t>View Quizzes Data</t>
+  </si>
+  <si>
+    <t>User can search the quizzes</t>
+  </si>
+  <si>
+    <t>User can filter the quizzes</t>
+  </si>
+  <si>
+    <t>User can control active status of the quizzes</t>
+  </si>
+  <si>
+    <t>User can control view status of the quizzes</t>
+  </si>
+  <si>
+    <t>User can view quizzes data of the quizzes</t>
+  </si>
+  <si>
+    <t>Add Plans</t>
+  </si>
+  <si>
+    <t>Edit Plans</t>
+  </si>
+  <si>
+    <t>Delete Plans</t>
+  </si>
+  <si>
+    <t>Search Plans</t>
+  </si>
+  <si>
+    <t>View Details Plans</t>
+  </si>
+  <si>
+    <t>User can add new plans</t>
+  </si>
+  <si>
+    <t>User can edit plans</t>
+  </si>
+  <si>
+    <t>User can delete plans</t>
+  </si>
+  <si>
+    <t>User can search plans</t>
+  </si>
+  <si>
+    <t>User can view the details of the plans</t>
+  </si>
+  <si>
+    <t>User can control enable or disable the plans</t>
+  </si>
+  <si>
+    <t>Edit Subscriptions</t>
+  </si>
+  <si>
+    <t>View Subscriptions</t>
+  </si>
+  <si>
+    <t>Search Subscriptions</t>
+  </si>
+  <si>
+    <t>View all Subscriptions</t>
+  </si>
+  <si>
+    <t>User can edit the subscriptions</t>
+  </si>
+  <si>
+    <t>User can view the individual details of subscriptions</t>
+  </si>
+  <si>
+    <t>User can search the existing subscriptions</t>
+  </si>
+  <si>
+    <t>User can view all the existing subscriptions</t>
+  </si>
+  <si>
+    <t>Search Cash Payments</t>
+  </si>
+  <si>
+    <t>Filter Cash Payments</t>
+  </si>
+  <si>
+    <t>User can search the existing cash payments</t>
+  </si>
+  <si>
+    <t>User can filter the cash payments</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -273,6 +462,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -280,11 +470,13 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -292,12 +484,14 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -305,19 +499,35 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF09090B"/>
       <name val="Outfit"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,8 +552,14 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -532,11 +748,155 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -588,6 +948,39 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -928,10 +1321,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -951,7 +1344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="12.75">
       <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
@@ -959,7 +1352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="12.75">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -967,7 +1360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="12.75">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -975,7 +1368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="12.75">
       <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
@@ -983,7 +1376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="12.75">
       <c r="A7" s="5" t="s">
         <v>17</v>
       </c>
@@ -991,7 +1384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="12.75">
       <c r="A8" s="5" t="s">
         <v>18</v>
       </c>
@@ -1014,31 +1407,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="12.75">
       <c r="A11" s="5" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="12.75">
       <c r="A12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="12.75">
+      <c r="A13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="12.75">
       <c r="A14" s="5" t="s">
         <v>15</v>
       </c>
@@ -1046,61 +1439,117 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="12.75">
       <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="12.75">
+      <c r="A16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="12.75">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12.75">
+      <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="12.75">
+      <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="12.75">
+      <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="13.5" thickBot="1">
+      <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A22" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="28"/>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A23" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="28"/>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A24" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="28"/>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A25" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A26" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A27" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="28"/>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="33"/>
+      <c r="B28" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1108,7 +1557,7 @@
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3:B8 B11:B21">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B3:B8 B11:B27">
       <formula1>"Discuss,In Dev,In Live,N/A,On Test"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1121,10 +1570,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1136,178 +1585,458 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="12.75">
+      <c r="A2" s="13" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
+      <c r="B2" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+    </row>
+    <row r="3" spans="1:3" ht="12.75">
       <c r="A3" s="14"/>
       <c r="B3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:3" ht="12.75">
       <c r="A4" s="14"/>
       <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:3" ht="12.75">
       <c r="A5" s="15"/>
       <c r="B5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:3" ht="12.75">
       <c r="A6" s="16" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12.75">
       <c r="A7" s="14"/>
       <c r="B7" s="7" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12.75">
       <c r="A8" s="14"/>
       <c r="B8" s="7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="12.75">
       <c r="A9" s="14"/>
       <c r="B9" s="7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="12.75">
       <c r="A10" s="14"/>
       <c r="B10" s="8" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="12.75">
       <c r="A11" s="14"/>
       <c r="B11" s="8" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="12.75">
       <c r="A12" s="14"/>
       <c r="B12" s="8" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="12.75">
       <c r="A13" s="14"/>
       <c r="B13" s="8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="12.75">
       <c r="A14" s="14"/>
       <c r="B14" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="12.75">
       <c r="A15" s="14"/>
       <c r="B15" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12.75">
       <c r="A16" s="14"/>
       <c r="B16" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13.5" thickBot="1">
       <c r="A17" s="14"/>
       <c r="B17" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="15"/>
-      <c r="B18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="12.75">
+      <c r="A18" s="14"/>
+      <c r="B18" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A19" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="39"/>
+      <c r="B20" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="39"/>
+      <c r="B21" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="39"/>
+      <c r="B22" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="39"/>
+      <c r="B23" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="39"/>
+      <c r="B24" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="39"/>
+      <c r="B25" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="41"/>
+      <c r="B27" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="41"/>
+      <c r="B28" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="41"/>
+      <c r="B29" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="37" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="42"/>
+      <c r="B30" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="37" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A31" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>85</v>
+      </c>
+      <c r="C31" s="37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A32" s="38"/>
+      <c r="B32" s="37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="38"/>
+      <c r="B33" s="37" t="s">
+        <v>109</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="38"/>
+      <c r="B34" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="38"/>
+      <c r="B35" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A36" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="37" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A37" s="43"/>
+      <c r="B37" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="37" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A38" s="43"/>
+      <c r="B38" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="37" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A39" s="43"/>
+      <c r="B39" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="37" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A40" s="43"/>
+      <c r="B40" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A41" s="43"/>
+      <c r="B41" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A42" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A43" s="38"/>
+      <c r="B43" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A44" s="38"/>
+      <c r="B44" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A45" s="38"/>
+      <c r="B45" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A46" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A47" s="43"/>
+      <c r="B47" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="37" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="A36:A41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1319,18 +2048,18 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
@@ -1338,11 +2067,11 @@
     </row>
     <row r="2" spans="1:6" ht="12.75">
       <c r="A2" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="17" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -1352,7 +2081,7 @@
       <c r="A3" s="23"/>
       <c r="B3" s="24"/>
       <c r="C3" s="17" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -1362,7 +2091,7 @@
       <c r="A4" s="23"/>
       <c r="B4" s="24"/>
       <c r="C4" s="17" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -1372,7 +2101,7 @@
       <c r="A5" s="23"/>
       <c r="B5" s="24"/>
       <c r="C5" s="17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -1382,7 +2111,7 @@
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="17" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -1392,7 +2121,7 @@
       <c r="A7" s="23"/>
       <c r="B7" s="24"/>
       <c r="C7" s="17" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -1402,7 +2131,7 @@
       <c r="A8" s="23"/>
       <c r="B8" s="24"/>
       <c r="C8" s="17" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -1412,7 +2141,7 @@
       <c r="A9" s="25"/>
       <c r="B9" s="26"/>
       <c r="C9" s="17" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>

--- a/QuizWhizAI.xlsx
+++ b/QuizWhizAI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="145">
   <si>
     <t>Website</t>
   </si>
@@ -212,9 +212,6 @@
     <t>Test Case Title</t>
   </si>
   <si>
-    <t>verify that users can login with invalid data as admin</t>
-  </si>
-  <si>
     <t xml:space="preserve">verify that users can login as admin without the " Remember Me " option </t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t>verify that users can login with valid data as user</t>
   </si>
   <si>
-    <t>verify that users can login with invalid data as user</t>
-  </si>
-  <si>
     <t xml:space="preserve">verify that users can login as user without the " Remember Me " option </t>
   </si>
   <si>
@@ -444,13 +438,34 @@
   </si>
   <si>
     <t>User can filter the cash payments</t>
+  </si>
+  <si>
+    <t>verify that users can register with the valid data</t>
+  </si>
+  <si>
+    <t>verify that users can't login with invalid data as admin</t>
+  </si>
+  <si>
+    <t>verify that users can't login with invalid data as user</t>
+  </si>
+  <si>
+    <t>verify that users can't register with the valid data</t>
+  </si>
+  <si>
+    <t>verify that can user register with different confirmation password</t>
+  </si>
+  <si>
+    <t>verify that can user login with the new registered data</t>
+  </si>
+  <si>
+    <t>verify that can user register with already existing data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -526,6 +541,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -896,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -916,38 +938,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -963,7 +953,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -978,7 +987,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1208,22 +1239,22 @@
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="21"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1324,17 +1355,17 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A1" s="12" t="str">
+      <c r="A1" s="23" t="str">
         <f>HYPERLINK("https://ai-quizwhiz.zluck.com/", "Frontend")</f>
         <v>Frontend</v>
       </c>
-      <c r="B1" s="10"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
@@ -1393,11 +1424,11 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A9" s="12" t="str">
+      <c r="A9" s="23" t="str">
         <f>HYPERLINK("https://ai-quizwhiz.zluck.com/login","Backend")</f>
         <v>Backend</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1">
       <c r="A10" s="4" t="s">
@@ -1409,7 +1440,7 @@
     </row>
     <row r="11" spans="1:2" ht="12.75">
       <c r="A11" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>13</v>
@@ -1417,7 +1448,7 @@
     </row>
     <row r="12" spans="1:2" ht="12.75">
       <c r="A12" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>13</v>
@@ -1496,60 +1527,60 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A22" s="29" t="s">
-        <v>78</v>
+      <c r="A22" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="28"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="30" t="s">
-        <v>83</v>
+      <c r="A23" s="12" t="s">
+        <v>81</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A24" s="31" t="s">
-        <v>79</v>
+      <c r="A24" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="28"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A25" s="35" t="s">
-        <v>80</v>
+      <c r="A25" s="17" t="s">
+        <v>78</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A26" s="34" t="s">
-        <v>81</v>
+      <c r="A26" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A27" s="32" t="s">
-        <v>82</v>
+      <c r="A27" s="14" t="s">
+        <v>80</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="28"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="33"/>
-      <c r="B28" s="27"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1573,7 +1604,7 @@
   <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1595,7 +1626,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="12.75">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="26" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1606,7 +1637,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="12.75">
-      <c r="A3" s="14"/>
+      <c r="A3" s="27"/>
       <c r="B3" s="7" t="s">
         <v>34</v>
       </c>
@@ -1615,7 +1646,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="12.75">
-      <c r="A4" s="14"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="7" t="s">
         <v>36</v>
       </c>
@@ -1624,7 +1655,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.75">
-      <c r="A5" s="15"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="7" t="s">
         <v>38</v>
       </c>
@@ -1633,27 +1664,27 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.75">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="29" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12.75">
-      <c r="A7" s="14"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12.75">
-      <c r="A8" s="14"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="7" t="s">
         <v>40</v>
       </c>
@@ -1662,7 +1693,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.75">
-      <c r="A9" s="14"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="7" t="s">
         <v>42</v>
       </c>
@@ -1671,16 +1702,16 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="12.75">
-      <c r="A10" s="14"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.75">
-      <c r="A11" s="14"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="8" t="s">
         <v>44</v>
       </c>
@@ -1689,7 +1720,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="12.75">
-      <c r="A12" s="14"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
@@ -1698,7 +1729,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="12.75">
-      <c r="A13" s="14"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="8" t="s">
         <v>48</v>
       </c>
@@ -1707,7 +1738,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="12.75">
-      <c r="A14" s="14"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="7" t="s">
         <v>50</v>
       </c>
@@ -1716,7 +1747,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" ht="12.75">
-      <c r="A15" s="14"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="7" t="s">
         <v>52</v>
       </c>
@@ -1725,7 +1756,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" ht="12.75">
-      <c r="A16" s="14"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="7" t="s">
         <v>54</v>
       </c>
@@ -1734,7 +1765,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.5" thickBot="1">
-      <c r="A17" s="14"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="7" t="s">
         <v>56</v>
       </c>
@@ -1743,285 +1774,285 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="12.75">
-      <c r="A18" s="14"/>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="27"/>
+      <c r="B18" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A20" s="30"/>
+      <c r="B20" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="C20" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="30"/>
+      <c r="B21" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C21" s="19" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="37" t="s">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A22" s="30"/>
+      <c r="B22" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C22" s="19" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="37" t="s">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A23" s="30"/>
+      <c r="B23" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C23" s="19" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="37" t="s">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A24" s="30"/>
+      <c r="B24" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C24" s="19" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="37" t="s">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A25" s="30"/>
+      <c r="B25" s="19" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="37" t="s">
+      <c r="C25" s="19" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="37" t="s">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A26" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="37" t="s">
+      <c r="C26" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A27" s="32"/>
+      <c r="B27" s="19" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A26" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="37" t="s">
+      <c r="C27" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A28" s="32"/>
+      <c r="B28" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="32"/>
+      <c r="B29" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C29" s="19" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A27" s="41"/>
-      <c r="B27" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" s="37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="41"/>
-      <c r="B28" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="37" t="s">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="33"/>
+      <c r="B30" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A31" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A32" s="25"/>
+      <c r="B32" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="25"/>
+      <c r="B33" s="19" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="42"/>
-      <c r="B30" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="37" t="s">
+      <c r="C33" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="25"/>
+      <c r="B34" s="19" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C31" s="37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="38"/>
-      <c r="B32" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C32" s="37" t="s">
+      <c r="C34" s="19" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="38"/>
-      <c r="B33" s="37" t="s">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="25"/>
+      <c r="B35" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C35" s="19" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="38"/>
-      <c r="B34" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="37" t="s">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A36" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="38"/>
-      <c r="B35" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="37" t="s">
+      <c r="C36" s="19" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A37" s="24"/>
+      <c r="B37" s="19" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A36" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="B36" s="37" t="s">
+      <c r="C37" s="19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A38" s="24"/>
+      <c r="B38" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="37" t="s">
+      <c r="C38" s="19" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="43"/>
-      <c r="B37" s="37" t="s">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A39" s="24"/>
+      <c r="B39" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="C37" s="37" t="s">
+      <c r="C39" s="19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="43"/>
-      <c r="B38" s="37" t="s">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A40" s="24"/>
+      <c r="B40" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="C38" s="37" t="s">
+      <c r="C40" s="19" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="43"/>
-      <c r="B39" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C39" s="37" t="s">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A41" s="24"/>
+      <c r="B41" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="43"/>
-      <c r="B40" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C40" s="37" t="s">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A42" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="19" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="43"/>
-      <c r="B41" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="37" t="s">
+      <c r="C42" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A43" s="25"/>
+      <c r="B43" s="19" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="37" t="s">
+      <c r="C43" s="19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A44" s="25"/>
+      <c r="B44" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="C42" s="37" t="s">
+      <c r="C44" s="19" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="38"/>
-      <c r="B43" s="37" t="s">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A45" s="25"/>
+      <c r="B45" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="C43" s="37" t="s">
+      <c r="C45" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="38"/>
-      <c r="B44" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="C44" s="37" t="s">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A46" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="19" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A45" s="38"/>
-      <c r="B45" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="C45" s="37" t="s">
+      <c r="C46" s="19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A47" s="24"/>
+      <c r="B47" s="19" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A46" s="43" t="s">
-        <v>23</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A47" s="43"/>
-      <c r="B47" s="37" t="s">
+      <c r="C47" s="19" t="s">
         <v>137</v>
-      </c>
-      <c r="C47" s="37" t="s">
-        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2045,110 +2076,168 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="36"/>
     </row>
     <row r="2" spans="1:6" ht="12.75">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="19"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
     </row>
     <row r="3" spans="1:6" ht="12.75">
-      <c r="A3" s="23"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="17" t="s">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="36"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" ht="12.75">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="36"/>
+    </row>
+    <row r="5" spans="1:6" ht="12.75">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" ht="12.75">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="17" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36"/>
+    </row>
+    <row r="6" spans="1:6" ht="12.75">
+      <c r="A6" s="39"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" ht="12.75">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="17" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="36"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75">
+      <c r="A7" s="39"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75">
+      <c r="A8" s="39"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="34" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:6" ht="12.75">
-      <c r="A7" s="23"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="17" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.5" thickBot="1">
+      <c r="A9" s="41"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:6" ht="12.75">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:6" ht="12.75">
-      <c r="A9" s="25"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="19"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="44" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="17">
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="A10:B14"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="C8:F8"/>
@@ -2162,5 +2251,6 @@
     <mergeCell ref="C5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>